--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\FR1PEPF000010EB\EXCELCNV\64e7fa35-a79e-40b7-bc29-c0367eb38e81\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\RaytRazor\1. Projektplanung\1.1 Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{0EBC66D5-E1D8-4053-A639-F3B0F755D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{842ED7D4-0855-4F5B-91E1-8256A7C3CB0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Name:</t>
   </si>
@@ -81,13 +81,19 @@
   </si>
   <si>
     <t xml:space="preserve">Aufgabenverteilung, Organisierung </t>
+  </si>
+  <si>
+    <t>Lastenheft</t>
+  </si>
+  <si>
+    <t>Erster Entwurf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -161,6 +167,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -436,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
@@ -451,7 +460,7 @@
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -459,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -467,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -475,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -483,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -497,7 +506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45574</v>
       </c>
@@ -511,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45579</v>
       </c>
@@ -523,6 +532,20 @@
       </c>
       <c r="D8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>45583</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -534,12 +557,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,19 +707,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\RaytRazor\1. Projektplanung\1.1 Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCB5944-F73D-4A63-A0C9-5C437BAF975C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Name:</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Erster Entwurf</t>
+  </si>
+  <si>
+    <t>Vision, Aufgabenteilung</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,12 +170,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
@@ -535,7 +535,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>45583</v>
       </c>
       <c r="B9" s="2">
@@ -546,6 +546,20 @@
       </c>
       <c r="D9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45586</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -557,9 +571,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,19 +724,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -743,9 +756,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCB5944-F73D-4A63-A0C9-5C437BAF975C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C0967A-6214-4EE3-B85F-DB95A1866C90}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Name:</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Vision, Aufgabenteilung</t>
+  </si>
+  <si>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>Visionspowerpoint</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,6 +176,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,6 +575,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45587</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>45588</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -571,12 +612,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,15 +762,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -756,10 +798,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98C0967A-6214-4EE3-B85F-DB95A1866C90}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066A28FE-B08D-4BD2-865E-00610D319178}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Name:</t>
   </si>
@@ -47,9 +47,6 @@
     <t>MatrNr:</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Projekt:</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Visionspowerpoint</t>
+  </si>
+  <si>
+    <t>RayForge</t>
   </si>
 </sst>
 </file>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -485,38 +485,38 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
+      <c r="B2" s="6">
+        <v>6003356</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,10 +527,10 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,10 +541,10 @@
         <v>1.5</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,10 +569,10 @@
         <v>1.5</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,10 +597,24 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45593</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +632,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -761,15 +784,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
@@ -780,6 +794,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -795,12 +817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066A28FE-B08D-4BD2-865E-00610D319178}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C23ADB-CF13-40BB-8A5D-65C64D18524A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>RayForge</t>
+  </si>
+  <si>
+    <t>MockUp- Guis eingebunden</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -176,9 +179,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,7 +590,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>45588</v>
       </c>
       <c r="B12" s="2">
@@ -615,6 +615,20 @@
       </c>
       <c r="D13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45595</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -632,15 +646,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -784,6 +789,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
@@ -794,14 +808,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -817,4 +823,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C23ADB-CF13-40BB-8A5D-65C64D18524A}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63DCBB4-C19D-4905-ACA3-A8DA0AC952AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Name:</t>
   </si>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,6 +631,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -646,6 +660,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -789,15 +812,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
@@ -808,6 +822,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -823,12 +845,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\CLionProjects\RaytRazor\RaytRazor\1. Projektplanung\1.1 Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{14C75A2F-0B96-4619-A289-2D4B83601698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63DCBB4-C19D-4905-ACA3-A8DA0AC952AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Name:</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>MockUp- Guis eingebunden</t>
+  </si>
+  <si>
+    <t>Offline-Treffen</t>
+  </si>
+  <si>
+    <t>Importer, überarbeitet -&gt; für NanoGui</t>
+  </si>
+  <si>
+    <t>Settings-Szene fertiggestellt, Gegenseitige Unterstüzung</t>
   </si>
 </sst>
 </file>
@@ -181,7 +190,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,10 +203,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
@@ -580,7 +585,7 @@
         <v>45587</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -633,16 +638,114 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>45600</v>
+        <v>45598</v>
       </c>
       <c r="B15" s="2">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45600</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>45605</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>45612</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>45616</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>45619</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>45624</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>45628</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -660,15 +763,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -812,6 +906,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
@@ -822,14 +925,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -845,4 +940,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\CLionProjects\RaytRazor\RaytRazor\1. Projektplanung\1.1 Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DD7E8F-F53E-4983-9FB1-1D4159D30B96}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16080" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Name:</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Settings-Szene fertiggestellt, Gegenseitige Unterstüzung</t>
+  </si>
+  <si>
+    <t>Importer, Converter</t>
+  </si>
+  <si>
+    <t>Fixxes</t>
+  </si>
+  <si>
+    <t>.obj einlesbar endlich!</t>
   </si>
 </sst>
 </file>
@@ -190,7 +199,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,13 +472,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="2" customWidth="1"/>
@@ -748,6 +757,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>45638</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>45665</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -757,9 +794,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,19 +947,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -943,9 +979,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DD7E8F-F53E-4983-9FB1-1D4159D30B96}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{734F7F43-7AED-4234-A85C-A306A0AE2FAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Name:</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>.obj einlesbar endlich!</t>
+  </si>
+  <si>
+    <t>Importer/GUI</t>
+  </si>
+  <si>
+    <t>Componenten_Widget</t>
+  </si>
+  <si>
+    <t>TreeView + Attribute Dynamisch</t>
+  </si>
+  <si>
+    <t>Importer anpassungen</t>
+  </si>
+  <si>
+    <t>Preview überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -212,6 +227,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -487,7 +506,7 @@
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -503,7 +522,7 @@
         <v>6003356</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -519,7 +538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -532,8 +551,12 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>SUM(B7:B29)</f>
+        <v>98.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45574</v>
       </c>
@@ -547,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45579</v>
       </c>
@@ -561,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45583</v>
       </c>
@@ -575,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45586</v>
       </c>
@@ -589,7 +612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45587</v>
       </c>
@@ -603,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45588</v>
       </c>
@@ -617,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45593</v>
       </c>
@@ -631,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45595</v>
       </c>
@@ -645,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45598</v>
       </c>
@@ -659,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45600</v>
       </c>
@@ -783,6 +806,76 @@
       </c>
       <c r="D24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>45671</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>45672</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>45673</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>45675</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -794,12 +887,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,15 +1037,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -979,10 +1073,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
+++ b/1. Projektplanung/1.1 Zeiterfassung/Zeiterfassung_Kasper_Christian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thude0-my.sharepoint.com/personal/kaspch01_hs-ulm_de/Documents/Semester 5/Software Projekt/RaytRazor/RaytRazor/1. Projektplanung/1.1 Zeiterfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2F6A005C-4933-46F3-BDAF-3A1EB424058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DD7E8F-F53E-4983-9FB1-1D4159D30B96}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{94D13F69-E4BB-4FA5-BDE2-F9BADDE19940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A4CECB-8802-4B4C-806D-96F722FA298C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{A62B9331-51AB-445E-8A86-E52DCE8B38AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Name:</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>.obj einlesbar endlich!</t>
+  </si>
+  <si>
+    <t>Importer/GUI</t>
+  </si>
+  <si>
+    <t>Componenten_Widget</t>
+  </si>
+  <si>
+    <t>TreeView + Attribute Dynamisch</t>
+  </si>
+  <si>
+    <t>Importer anpassungen</t>
+  </si>
+  <si>
+    <t>Preview überarbeitet</t>
+  </si>
+  <si>
+    <t>UI-fertig gestellt + Debug beim Importer + Converter fixx</t>
+  </si>
+  <si>
+    <t>Erfahrungsbericht + Lastenheft + letzte Buggs in GUI</t>
   </si>
 </sst>
 </file>
@@ -472,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709269E3-F8C7-4951-A5F4-E55A0F95233D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -487,7 +508,7 @@
     <col min="5" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -503,7 +524,7 @@
         <v>6003356</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -519,7 +540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -532,8 +553,12 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f>SUM(B7:B31)</f>
+        <v>114.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45574</v>
       </c>
@@ -547,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45579</v>
       </c>
@@ -561,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45583</v>
       </c>
@@ -575,7 +600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45586</v>
       </c>
@@ -589,7 +614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45587</v>
       </c>
@@ -603,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45588</v>
       </c>
@@ -617,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45593</v>
       </c>
@@ -631,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45595</v>
       </c>
@@ -645,7 +670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45598</v>
       </c>
@@ -659,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45600</v>
       </c>
@@ -783,6 +808,104 @@
       </c>
       <c r="D24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>45671</v>
+      </c>
+      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>45672</v>
+      </c>
+      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>45673</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>45674</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>45675</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>45676</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>45677</v>
+      </c>
+      <c r="B31" s="2">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -794,15 +917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100EA32FAADEF28B246BE81F09370D9BDD6" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ee5e8cab159ec08823d71aeff920ea58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bcfc458b-b0e2-47b4-8909-d39697dfebcc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6553d0449cd115c0021964cc0df6b6b1" ns2:_="">
     <xsd:import namespace="bcfc458b-b0e2-47b4-8909-d39697dfebcc"/>
@@ -946,6 +1060,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -953,14 +1076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D748C67-AC05-41D6-A371-F6C56D9D62DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -978,6 +1093,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C634F9CB-9B15-47F9-9574-21334E2C6303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2314BDC-9EA2-4E30-A7C5-448E8CFAD4C2}">
   <ds:schemaRefs>
